--- a/NEW HR/MALANA, JENNYLYN REYES.xlsx
+++ b/NEW HR/MALANA, JENNYLYN REYES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>1/3-6,9-13,16-20,23-27,30,31/2023</t>
+  </si>
+  <si>
+    <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>3/21,28-31/2023</t>
   </si>
 </sst>
 </file>
@@ -717,20 +723,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -741,6 +747,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,7 +1279,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1322,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1386,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1446,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1512,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1575,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1673,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1732,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1797,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1840,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1915,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2101,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2167,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2225,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2291,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2347,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2422,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2465,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2531,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2587,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,10 +3062,10 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A59" activePane="bottomLeft"/>
-      <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4170" topLeftCell="A65" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,34 +3087,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3120,21 +3126,23 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3160,18 +3168,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3218,7 +3226,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>27.28</v>
+        <v>29.78</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3228,7 +3236,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.28</v>
+        <v>78.78</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4597,20 +4605,24 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="62" t="s">
+      <c r="K76" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4618,15 +4630,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5083,17 +5099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5128,10 +5144,10 @@
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A48" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9:C92"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,34 +5169,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -5192,21 +5208,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5232,18 +5248,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5290,7 +5306,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.152999999999992</v>
+        <v>7.1529999999999916</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6447,12 +6463,14 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="62" t="s">
+      <c r="K61" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="48" t="s">
+        <v>89</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -6468,10 +6486,16 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>5</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -6481,7 +6505,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
@@ -7011,17 +7037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7106,12 +7132,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/MALANA, JENNYLYN REYES.xlsx
+++ b/NEW HR/MALANA, JENNYLYN REYES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FD752-B4EF-4C79-AA0F-85566361AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,25 +28,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -338,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -575,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,23 +713,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,9 +739,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,7 +1269,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1312,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1376,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1436,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1502,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1565,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1663,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1722,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1787,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1830,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1905,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2091,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2157,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2215,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2281,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2337,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2412,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2455,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2521,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2577,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,25 +2673,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2713,25 +2703,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3038,7 +3028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3048,7 +3038,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3056,65 +3046,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4164" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3122,29 +3112,29 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3152,7 +3142,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3165,24 +3155,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3241,7 +3231,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3263,7 +3253,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3283,7 +3273,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3303,7 +3293,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3329,7 +3319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3349,7 +3339,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3369,7 +3359,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3389,7 +3379,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3409,7 +3399,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3429,7 +3419,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3449,7 +3439,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3469,7 +3459,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3489,7 +3479,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3509,7 +3499,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
@@ -3527,7 +3517,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3547,7 +3537,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3567,7 +3557,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3593,7 +3583,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3613,7 +3603,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3639,7 +3629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3659,7 +3649,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3679,7 +3669,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3699,7 +3689,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3719,7 +3709,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3739,7 +3729,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3759,7 +3749,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3779,7 +3769,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>74</v>
       </c>
@@ -3797,7 +3787,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3817,7 +3807,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3837,7 +3827,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3857,7 +3847,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3877,7 +3867,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3897,7 +3887,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3917,7 +3907,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3937,7 +3927,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3957,7 +3947,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3977,7 +3967,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3997,7 +3987,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4017,7 +4007,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4041,7 +4031,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>83</v>
       </c>
@@ -4059,7 +4049,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4079,7 +4069,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4099,7 +4089,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4119,7 +4109,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4139,7 +4129,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4159,7 +4149,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4179,7 +4169,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4199,7 +4189,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4219,7 +4209,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4239,7 +4229,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4259,7 +4249,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4279,7 +4269,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4303,7 +4293,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>85</v>
       </c>
@@ -4321,7 +4311,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4341,7 +4331,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4361,7 +4351,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4381,7 +4371,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4401,7 +4391,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4421,7 +4411,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4441,7 +4431,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4461,7 +4451,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4481,7 +4471,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4501,7 +4491,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4521,7 +4511,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4541,7 +4531,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4565,7 +4555,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>89</v>
       </c>
@@ -4583,8 +4573,8 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="50">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
         <v>44927</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -4605,11 +4595,11 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="51" t="s">
+      <c r="K76" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4629,7 +4619,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4649,7 +4639,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4665,7 +4655,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4681,7 +4671,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4697,7 +4687,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4713,7 +4703,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4729,7 +4719,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4745,7 +4735,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4761,7 +4751,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4777,7 +4767,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4793,7 +4783,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4809,7 +4799,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4825,7 +4815,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4841,7 +4831,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4857,7 +4847,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4873,7 +4863,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4889,7 +4879,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4905,7 +4895,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4921,7 +4911,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4937,7 +4927,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4953,7 +4943,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4969,7 +4959,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4985,7 +4975,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5001,7 +4991,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5017,7 +5007,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5033,7 +5023,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5049,7 +5039,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5065,7 +5055,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5081,7 +5071,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="15"/>
       <c r="C106" s="42"/>
@@ -5099,23 +5089,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5138,65 +5128,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A48" activePane="bottomLeft"/>
-      <selection activeCell="C9" sqref="C9:C92"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="4056" topLeftCell="A57" activePane="bottomLeft"/>
+      <selection activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -5204,27 +5194,27 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5232,7 +5222,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5245,24 +5235,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5297,7 +5287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5316,12 +5306,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>31.283000000000001</v>
+        <v>30.283000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5343,7 +5333,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -5367,7 +5357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5389,7 +5379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
@@ -5409,7 +5399,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -5431,7 +5421,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -5453,7 +5443,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>53</v>
@@ -5475,7 +5465,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>53</v>
@@ -5497,7 +5487,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -5517,7 +5507,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -5541,7 +5531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>57</v>
@@ -5561,7 +5551,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -5607,7 +5597,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>58</v>
@@ -5627,7 +5617,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -5651,7 +5641,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>53</v>
@@ -5673,7 +5663,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>59</v>
@@ -5693,7 +5683,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43313</v>
       </c>
@@ -5715,7 +5705,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -5737,7 +5727,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43374</v>
       </c>
@@ -5761,7 +5751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>63</v>
@@ -5781,7 +5771,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43405</v>
       </c>
@@ -5803,7 +5793,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -5823,7 +5813,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43435</v>
       </c>
@@ -5847,7 +5837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -5869,7 +5859,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>67</v>
@@ -5889,7 +5879,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>68</v>
       </c>
@@ -5907,7 +5897,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -5931,7 +5921,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
@@ -5953,7 +5943,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43525</v>
       </c>
@@ -5975,7 +5965,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
@@ -5999,7 +5989,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43678</v>
       </c>
@@ -6023,7 +6013,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43709</v>
       </c>
@@ -6047,7 +6037,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43739</v>
       </c>
@@ -6071,7 +6061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>53</v>
@@ -6093,7 +6083,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43770</v>
       </c>
@@ -6117,7 +6107,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43800</v>
       </c>
@@ -6141,7 +6131,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>74</v>
       </c>
@@ -6159,7 +6149,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43831</v>
       </c>
@@ -6181,7 +6171,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -6203,7 +6193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>53</v>
@@ -6223,7 +6213,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43891</v>
       </c>
@@ -6247,7 +6237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>77</v>
@@ -6269,7 +6259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>78</v>
@@ -6289,7 +6279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -6313,7 +6303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>53</v>
@@ -6335,7 +6325,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -6357,7 +6347,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44044</v>
       </c>
@@ -6381,7 +6371,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>85</v>
       </c>
@@ -6399,7 +6389,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -6423,7 +6413,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44866</v>
       </c>
@@ -6445,7 +6435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44896</v>
       </c>
@@ -6463,11 +6453,11 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="51" t="s">
+      <c r="K61" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>89</v>
       </c>
@@ -6485,7 +6475,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44986</v>
       </c>
@@ -6509,9 +6499,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -6520,12 +6512,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="49">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6541,7 +6537,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6557,7 +6553,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6573,7 +6569,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6589,7 +6585,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6605,7 +6601,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6621,7 +6617,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6637,7 +6633,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6653,7 +6649,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6669,7 +6665,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6685,7 +6681,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6701,7 +6697,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6717,7 +6713,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6733,7 +6729,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6749,7 +6745,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6765,7 +6761,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6781,7 +6777,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6797,7 +6793,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6813,7 +6809,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6829,7 +6825,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6845,7 +6841,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6861,7 +6857,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6877,7 +6873,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6893,7 +6889,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6909,7 +6905,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6925,7 +6921,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6941,7 +6937,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6957,7 +6953,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="15"/>
       <c r="C92" s="42"/>
@@ -6989,10 +6985,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7015,41 +7011,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7078,7 +7074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>53.83</v>
       </c>
@@ -7108,17 +7104,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7132,14 +7128,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7166,7 +7162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7192,7 +7188,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7218,7 +7214,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7296,7 +7292,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7322,7 +7318,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7368,7 +7364,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7388,7 +7384,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7408,7 +7404,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7471,7 +7467,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7513,7 +7509,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7534,7 +7530,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7555,7 +7551,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7576,7 +7572,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7660,7 +7656,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7681,7 +7677,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7702,7 +7698,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7723,7 +7719,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7744,7 +7740,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7828,7 +7824,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7837,7 +7833,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7846,7 +7842,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7855,7 +7851,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7864,7 +7860,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7873,7 +7869,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7882,7 +7878,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7891,7 +7887,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7900,7 +7896,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7909,7 +7905,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7918,7 +7914,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7927,7 +7923,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7936,7 +7932,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7945,7 +7941,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7954,7 +7950,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7963,7 +7959,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7972,7 +7968,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7981,7 +7977,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7990,7 +7986,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7999,7 +7995,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8008,7 +8004,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8017,7 +8013,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8026,7 +8022,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8035,7 +8031,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8044,7 +8040,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8053,7 +8049,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8062,7 +8058,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8071,7 +8067,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8080,7 +8076,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8089,7 +8085,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MALANA, JENNYLYN REYES.xlsx
+++ b/NEW HR/MALANA, JENNYLYN REYES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FD752-B4EF-4C79-AA0F-85566361AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -331,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -719,17 +718,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -739,6 +735,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,7 +1268,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1311,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1375,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1501,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1564,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1662,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1721,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1786,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1829,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1904,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2090,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2156,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2214,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2280,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2336,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2411,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2454,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2520,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2576,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,25 +2672,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2703,25 +2702,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3028,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3038,7 +3037,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3046,34 +3045,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4164" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4170" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3085,16 +3084,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3103,16 +3102,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3123,18 +3122,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3142,7 +3141,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3155,24 +3154,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3231,7 +3230,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3399,7 +3398,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3479,7 +3478,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3537,7 +3536,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3557,7 +3556,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>74</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3867,7 +3866,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3947,7 +3946,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3967,7 +3966,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3987,7 +3986,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4031,7 +4030,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>83</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4109,7 +4108,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4129,7 +4128,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4189,7 +4188,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4209,7 +4208,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4229,7 +4228,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4249,7 +4248,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4269,7 +4268,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>85</v>
       </c>
@@ -4311,7 +4310,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4331,7 +4330,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4351,7 +4350,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4371,7 +4370,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4391,7 +4390,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4411,7 +4410,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4431,7 +4430,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4471,7 +4470,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4491,7 +4490,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4511,7 +4510,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4531,7 +4530,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4555,7 +4554,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>89</v>
       </c>
@@ -4573,7 +4572,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4619,7 +4618,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4639,7 +4638,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4655,7 +4654,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4671,7 +4670,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4687,7 +4686,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4703,7 +4702,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4719,7 +4718,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4735,7 +4734,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4751,7 +4750,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4767,7 +4766,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4783,7 +4782,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4799,7 +4798,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4815,7 +4814,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4831,7 +4830,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4847,7 +4846,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4863,7 +4862,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4879,7 +4878,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4895,7 +4894,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4911,7 +4910,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4927,7 +4926,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4943,7 +4942,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4959,7 +4958,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4975,7 +4974,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4991,7 +4990,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5007,7 +5006,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5023,7 +5022,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5039,7 +5038,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5055,7 +5054,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5071,7 +5070,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="15"/>
       <c r="C106" s="42"/>
@@ -5089,23 +5088,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5128,34 +5127,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A57" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A57" activePane="bottomLeft"/>
       <selection activeCell="M7" sqref="M7"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5167,16 +5166,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5185,16 +5184,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5205,16 +5204,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5222,7 +5221,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5235,24 +5234,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5306,12 +5305,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.283000000000001</v>
+        <v>29.283000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5333,7 +5332,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -5379,7 +5378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
@@ -5399,7 +5398,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -5443,7 +5442,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>53</v>
@@ -5465,7 +5464,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>53</v>
@@ -5487,7 +5486,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -5507,7 +5506,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>57</v>
@@ -5551,7 +5550,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -5597,7 +5596,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>58</v>
@@ -5617,7 +5616,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>53</v>
@@ -5663,7 +5662,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>59</v>
@@ -5683,7 +5682,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43313</v>
       </c>
@@ -5705,7 +5704,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -5727,7 +5726,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43374</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>63</v>
@@ -5771,7 +5770,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43405</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -5813,7 +5812,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43435</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -5859,7 +5858,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>67</v>
@@ -5879,7 +5878,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>68</v>
       </c>
@@ -5897,7 +5896,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
@@ -5943,7 +5942,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43525</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43678</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43709</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43739</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>53</v>
@@ -6083,7 +6082,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43770</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43800</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>74</v>
       </c>
@@ -6149,7 +6148,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43831</v>
       </c>
@@ -6171,7 +6170,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>53</v>
@@ -6213,7 +6212,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43891</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>77</v>
@@ -6259,7 +6258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>78</v>
@@ -6279,7 +6278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>53</v>
@@ -6325,7 +6324,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -6347,7 +6346,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44044</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>85</v>
       </c>
@@ -6389,7 +6388,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44805</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44866</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44896</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>89</v>
       </c>
@@ -6475,7 +6474,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44986</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>53</v>
@@ -6521,9 +6520,13 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
@@ -6532,12 +6535,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="49">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6553,7 +6560,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6569,7 +6576,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6585,7 +6592,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6601,7 +6608,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6617,7 +6624,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6633,7 +6640,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6649,7 +6656,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6665,7 +6672,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6681,7 +6688,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6697,7 +6704,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6713,7 +6720,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6729,7 +6736,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6745,7 +6752,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6761,7 +6768,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6777,7 +6784,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6793,7 +6800,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6809,7 +6816,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6825,7 +6832,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6841,7 +6848,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6857,7 +6864,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6873,7 +6880,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6889,7 +6896,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6905,7 +6912,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6921,7 +6928,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6937,7 +6944,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6953,7 +6960,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="15"/>
       <c r="C92" s="42"/>
@@ -6985,10 +6992,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7011,28 +7018,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7045,7 +7052,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7074,7 +7081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>53.83</v>
       </c>
@@ -7104,17 +7111,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7135,7 +7142,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7162,7 +7169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7188,7 +7195,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7214,7 +7221,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7240,7 +7247,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7292,7 +7299,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7318,7 +7325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7344,7 +7351,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7384,7 +7391,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7404,7 +7411,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7425,7 +7432,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7467,7 +7474,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7488,7 +7495,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7509,7 +7516,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7530,7 +7537,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7572,7 +7579,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7593,7 +7600,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7614,7 +7621,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7656,7 +7663,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7677,7 +7684,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7698,7 +7705,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7719,7 +7726,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7761,7 +7768,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7824,7 +7831,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7833,7 +7840,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7842,7 +7849,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7851,7 +7858,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7860,7 +7867,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7869,7 +7876,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7878,7 +7885,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7887,7 +7894,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7896,7 +7903,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7905,7 +7912,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7914,7 +7921,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7923,7 +7930,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7932,7 +7939,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7941,7 +7948,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7950,7 +7957,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7959,7 +7966,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7968,7 +7975,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7977,7 +7984,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7986,7 +7993,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7995,7 +8002,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8004,7 +8011,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8013,7 +8020,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8022,7 +8029,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8031,7 +8038,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8040,7 +8047,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8049,7 +8056,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8058,7 +8065,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8067,7 +8074,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8076,7 +8083,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8085,7 +8092,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MALANA, JENNYLYN REYES.xlsx
+++ b/NEW HR/MALANA, JENNYLYN REYES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>3/21,28-31/2023</t>
+  </si>
+  <si>
+    <t>CASUAL EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PICNIC</t>
   </si>
 </sst>
 </file>
@@ -3051,10 +3057,10 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A65" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4170" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95:F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3221,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>29.78</v>
+        <v>32.28</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3225,7 +3231,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.78</v>
+        <v>81.28</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4639,15 +4645,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4655,15 +4665,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4671,7 +4685,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4687,7 +4703,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4703,7 +4721,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4719,7 +4739,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4735,7 +4757,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4751,7 +4775,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4767,7 +4793,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4783,7 +4811,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4799,7 +4829,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4815,7 +4847,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4831,7 +4865,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4847,7 +4883,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4863,7 +4901,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4879,7 +4919,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4895,7 +4937,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4911,7 +4955,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5133,10 +5179,10 @@
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A57" activePane="bottomLeft"/>
-      <selection activeCell="M7" sqref="M7"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A62" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5225,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>96</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -5204,7 +5252,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -5305,7 +5355,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29.283000000000001</v>
+        <v>27.283000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6546,7 +6596,9 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
@@ -6555,14 +6607,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H66" s="39"/>
+      <c r="H66" s="39">
+        <v>1</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="49">
+        <v>45069</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
@@ -6571,10 +6629,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="39">
+        <v>1</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>

--- a/NEW HR/MALANA, JENNYLYN REYES.xlsx
+++ b/NEW HR/MALANA, JENNYLYN REYES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>PICNIC</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>9/14,15 - 18-22/2023</t>
+  </si>
+  <si>
+    <t>9/25-29/2023</t>
+  </si>
+  <si>
+    <t>8/30-31/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>9/8-13/2023</t>
   </si>
 </sst>
 </file>
@@ -724,14 +742,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -741,9 +762,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,7 +1292,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1335,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1399,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1459,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1525,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1588,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1686,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1745,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1810,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1853,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1928,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2114,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2180,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2238,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2304,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2360,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2435,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2478,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2544,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2600,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,10 +3075,10 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4170" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95:F95"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,14 +3108,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3108,14 +3126,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3128,16 +3146,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3163,18 +3181,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3221,7 +3239,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>32.28</v>
+        <v>31.03</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3231,7 +3249,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.28</v>
+        <v>85.03</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4689,13 +4707,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4707,13 +4727,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4725,13 +4747,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4742,9 +4766,13 @@
       <c r="A84" s="40">
         <v>45170</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4754,7 +4782,9 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
@@ -5134,17 +5164,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5179,10 +5209,10 @@
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76:D80"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,14 +5242,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5232,14 +5262,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5252,16 +5282,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5287,18 +5317,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5345,7 +5375,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.1529999999999916</v>
+        <v>0.15299999999999159</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5355,7 +5385,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.283000000000001</v>
+        <v>21.283000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6639,10 +6669,16 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>7</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
@@ -6652,11 +6688,15 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
@@ -6665,14 +6705,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>2</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
@@ -6681,10 +6727,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="39"/>
+      <c r="H70" s="39">
+        <v>4</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
